--- a/Testing_Artifacts/1. Database testing with Postgres/DB Testing_LMS_.xlsx
+++ b/Testing_Artifacts/1. Database testing with Postgres/DB Testing_LMS_.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissakanyi/Desktop/Incourage Project Deliverables/Database testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissakanyi/Downloads/Loan-Management-System-master/Testing_Artifacts/1. Database testing with Postgres/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28B067F-E2A5-D249-821B-262FD2188593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF78C5-4399-354C-8BD2-6EC57D479340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="500" windowWidth="35500" windowHeight="18840" xr2:uid="{82C73610-8692-264B-8B7B-EB74EAB39CC4}"/>
+    <workbookView xWindow="700" yWindow="500" windowWidth="35500" windowHeight="18840" activeTab="2" xr2:uid="{82C73610-8692-264B-8B7B-EB74EAB39CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="DB testing" sheetId="4" r:id="rId1"/>
+    <sheet name=" summary of database testing" sheetId="6" r:id="rId2"/>
+    <sheet name="report on performance and secur" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
   <si>
     <t>Priority</t>
   </si>
@@ -236,12 +238,210 @@
   <si>
     <t>TC_Dver_05</t>
   </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>1. Project Information</t>
+  </si>
+  <si>
+    <t>1.1 Project Name</t>
+  </si>
+  <si>
+    <t>Enter Project Name</t>
+  </si>
+  <si>
+    <t>1.2 Project Description</t>
+  </si>
+  <si>
+    <t>Brief description of the project</t>
+  </si>
+  <si>
+    <t>1.3 Application Under Test (AUT)</t>
+  </si>
+  <si>
+    <t>Name of the application/system</t>
+  </si>
+  <si>
+    <t>1.4 Testing Dates</t>
+  </si>
+  <si>
+    <t>Start Date: Date</t>
+  </si>
+  <si>
+    <t>1.5 Testing Team</t>
+  </si>
+  <si>
+    <t>List of Testers</t>
+  </si>
+  <si>
+    <t>2. Performance Testing</t>
+  </si>
+  <si>
+    <t>2.1 Objectives</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; - Objective 1, Measure response times under peak load &lt;br&gt; - Objective 2, Evaluate system scalability &lt;br&gt; - Objective 3, Determine system resource utilization</t>
+  </si>
+  <si>
+    <t>2.2 Test Scenarios</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; - Scenario 1, User Login &lt;br&gt; - Scenario 2, Customer creation &lt;br&gt; - Scenario 3, Loan updating</t>
+  </si>
+  <si>
+    <t>2.3 Performance Metrics</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; - Response Time (ms) &lt;br&gt; - Throughput (Requests/sec) &lt;br&gt; - Resource Utilization (Load performance, Memory) &lt;br&gt; - Error Rates</t>
+  </si>
+  <si>
+    <t>2.4 Load Generation</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; - Tools: JMeter, LoadRunner &lt;br&gt; - User Load:  100 concurrent users, 1000 concurrent users &lt;br&gt; - Ramp-up Time: Time to reach peak load</t>
+  </si>
+  <si>
+    <t>2.5 Test Environment</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; - Hardware: Server specifications, network configuration &lt;br&gt; - Software: Operating system, database, application version</t>
+  </si>
+  <si>
+    <t>3. Security Testing</t>
+  </si>
+  <si>
+    <t>3.1 Objectives</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; - Objective 1, Identify vulnerabilities &lt;br&gt; - Objective 2, Assess security risks &lt;br&gt; - Objective 3,  Ensure data confidentiality and integrity</t>
+  </si>
+  <si>
+    <t>3.2 Test Types</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; - Penetration Testing &lt;br&gt; - Vulnerability Scanning &lt;br&gt; - Threat Modeling</t>
+  </si>
+  <si>
+    <t>3.3 Security Testing Tools</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; -  OWASP ZAP, Nessus</t>
+  </si>
+  <si>
+    <t>3.4 Security Vulnerabilities</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; - List of vulnerabilities to be tested,  SQL Injection, Cross-Site Scripting</t>
+  </si>
+  <si>
+    <t>4. Reporting</t>
+  </si>
+  <si>
+    <t>4.1 Reporting Frequency</t>
+  </si>
+  <si>
+    <t>Daily, Weekly, On Completion</t>
+  </si>
+  <si>
+    <t>4.2 Reporting Format</t>
+  </si>
+  <si>
+    <t>Excel, PDF, Presentation</t>
+  </si>
+  <si>
+    <t>4.3 Key Metrics</t>
+  </si>
+  <si>
+    <t>Response times, throughput, error rates, vulnerability findings</t>
+  </si>
+  <si>
+    <t>5. Risk Assessment</t>
+  </si>
+  <si>
+    <t>5.1 Potential Risks</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; -  Insufficient testing time, resource limitations, unexpected issues</t>
+  </si>
+  <si>
+    <t>5.2 Mitigation Strategies</t>
+  </si>
+  <si>
+    <t>&lt;br&gt; -  Contingency plans, risk-based testing</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>1. Date</t>
+  </si>
+  <si>
+    <t>2. Tester</t>
+  </si>
+  <si>
+    <t>3. Database</t>
+  </si>
+  <si>
+    <t>4. Environment</t>
+  </si>
+  <si>
+    <t>5. Test Area</t>
+  </si>
+  <si>
+    <t>Data Integrity</t>
+  </si>
+  <si>
+    <t>6. Test Cases</t>
+  </si>
+  <si>
+    <t>Check for duplicate customer IDs</t>
+  </si>
+  <si>
+    <t>7. Result</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>8. Issue Description</t>
+  </si>
+  <si>
+    <t>Duplicate customer IDs found in the Customer table.</t>
+  </si>
+  <si>
+    <t>9. Severity</t>
+  </si>
+  <si>
+    <t>10. Recommended Action</t>
+  </si>
+  <si>
+    <t>Implement a unique constraint on the customer ID column.</t>
+  </si>
+  <si>
+    <t>Jan 10, 2025</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Database.sql</t>
+  </si>
+  <si>
+    <t>QA Environment</t>
+  </si>
+  <si>
+    <t>Loan Management system</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,6 +476,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -335,6 +541,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41160016-A50D-C342-A583-6D48B34C3046}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1016,4 +1223,322 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285CF649-44C9-A447-BDB4-54CA983A3C58}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA237294-20AE-CD4B-95C6-8822F0A11BE9}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="146.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>